--- a/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
+++ b/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJANDROBARRETOJIME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{23DAF6FC-0D56-4A07-9699-B6E7DC0C0969}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DCF032-848C-4EB1-9E89-83084E75BF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{4F7F1899-FA6B-47B3-A3A3-3EAE9246EA6C}" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}"/>
   </bookViews>
   <sheets>
-    <sheet name="Candidates" r:id="rId1" sheetId="1"/>
+    <sheet name="Candidates" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -68,44 +68,16 @@
     <t>feedback</t>
   </si>
   <si>
-    <t>Alex2</t>
-  </si>
-  <si>
-    <t>email2@email.com</t>
-  </si>
-  <si>
-    <t>Front-End</t>
-  </si>
-  <si>
-    <t>IE Pending</t>
-  </si>
-  <si>
-    <t>2021/01/28 11:04:16</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>email@email.com</t>
-  </si>
-  <si>
-    <t>2021/01/28 11:04:22</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>inactive</t>
+    <t>skills</t>
+  </si>
+  <si>
+    <t>aging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -166,22 +138,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,10 +180,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -236,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -399,21 +381,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -430,7 +412,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -482,23 +464,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C362A0F6-F5E5-4D93-8B0E-CD6CCF957C7A}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,70 +514,14 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.23456789E9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.23456789E9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
+++ b/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJANDROBARRETOJIME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72DCF032-848C-4EB1-9E89-83084E75BF75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="8_{72DCF032-848C-4EB1-9E89-83084E75BF75}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}"/>
+    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Candidates" sheetId="1" r:id="rId1"/>
+    <sheet name="Candidates" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -72,12 +72,37 @@
   </si>
   <si>
     <t>aging</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>email@email.com</t>
+  </si>
+  <si>
+    <t>Front-End</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>2021/01/29 08:11:53</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>accepted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,21 +174,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,10 +205,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -218,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -270,7 +295,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -381,21 +406,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -412,7 +437,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -464,15 +489,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
@@ -521,7 +546,46 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.23456789E9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
+++ b/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJANDROBARRETOJIME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{72DCF032-848C-4EB1-9E89-83084E75BF75}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF789850-3E80-4CAF-954F-E7058B514A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}"/>
   </bookViews>
   <sheets>
-    <sheet name="Candidates" r:id="rId1" sheetId="1"/>
+    <sheet name="Candidates" sheetId="1" r:id="rId1"/>
+    <sheet name="Evaluations" sheetId="4" r:id="rId2"/>
+    <sheet name="Evaluators" sheetId="3" r:id="rId3"/>
+    <sheet name="Managers" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,76 +36,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>yearsOfExperience</t>
-  </si>
-  <si>
-    <t>EnglishLevel</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>creationDate</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>evaluator</t>
-  </si>
-  <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t>skills</t>
-  </si>
-  <si>
-    <t>aging</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>email@email.com</t>
-  </si>
-  <si>
-    <t>Front-End</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>2021/01/29 08:11:53</t>
+    <t>Candidate Id</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Years of experience</t>
+  </si>
+  <si>
+    <t>English level</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
   <si>
     <t>Skills</t>
   </si>
   <si>
-    <t>accepted</t>
+    <t>Aging</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Manager Id</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Evaluator id</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Allowed to relocated?</t>
+  </si>
+  <si>
+    <t>Evaluation Id</t>
+  </si>
+  <si>
+    <t>Evaluator Id</t>
+  </si>
+  <si>
+    <t>Feed Back</t>
+  </si>
+  <si>
+    <t>Evaluation Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,37 +163,25 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -205,10 +198,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -243,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -295,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -406,21 +399,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -437,7 +430,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -489,103 +482,157 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.23456789E9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.0</v>
+      <c r="M1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2AEA43-741B-4AEE-8002-632E7D454993}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CBEA14-E8E3-4C62-ADB9-378814C22411}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ADAEBD-EBD7-4AAB-8051-A610B3841985}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
+++ b/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJANDROBARRETOJIME\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF789850-3E80-4CAF-954F-E7058B514A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EF789850-3E80-4CAF-954F-E7058B514A83}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}"/>
+    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Candidates" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluations" sheetId="4" r:id="rId2"/>
-    <sheet name="Evaluators" sheetId="3" r:id="rId3"/>
-    <sheet name="Managers" sheetId="2" r:id="rId4"/>
+    <sheet name="Candidates" r:id="rId1" sheetId="1"/>
+    <sheet name="Evaluations" r:id="rId2" sheetId="4"/>
+    <sheet name="Evaluators" r:id="rId3" sheetId="3"/>
+    <sheet name="Managers" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -102,12 +102,70 @@
   </si>
   <si>
     <t>Evaluation Date</t>
+  </si>
+  <si>
+    <t>Bis</t>
+  </si>
+  <si>
+    <t>Bis@email.com</t>
+  </si>
+  <si>
+    <t>eTrade</t>
+  </si>
+  <si>
+    <t>Alex2</t>
+  </si>
+  <si>
+    <t>Alex2@email.com</t>
+  </si>
+  <si>
+    <t>Back-End</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>2021/02/08 17:04:15</t>
+  </si>
+  <si>
+    <t>Skills Back end</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2021/02/08 17:11:54</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex@email.com</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Back-end Developer</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>2021/02/08 17:57:11</t>
+  </si>
+  <si>
+    <t>accepted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,20 +226,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,10 +256,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -236,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -288,7 +346,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -399,21 +457,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -430,7 +488,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -482,15 +540,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -539,14 +597,96 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.23456789E9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.23456789E9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2AEA43-741B-4AEE-8002-632E7D454993}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2AEA43-741B-4AEE-8002-632E7D454993}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -574,14 +714,34 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CBEA14-E8E3-4C62-ADB9-378814C22411}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CBEA14-E8E3-4C62-ADB9-378814C22411}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -603,14 +763,28 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ADAEBD-EBD7-4AAB-8051-A610B3841985}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ADAEBD-EBD7-4AAB-8051-A610B3841985}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -632,7 +806,21 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
+++ b/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +159,24 @@
   </si>
   <si>
     <t>accepted</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Prueba@email.com</t>
+  </si>
+  <si>
+    <t>3317221090</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>2021/02/11 15:57:48</t>
+  </si>
+  <si>
+    <t>Skills BAck end</t>
   </si>
 </sst>
 </file>
@@ -548,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -676,6 +694,47 @@
         <v>32</v>
       </c>
       <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="b">
         <v>1</v>
       </c>
     </row>

--- a/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
+++ b/ApplicantTrackerServicesExcel/src/main/resources/files/CandidatesTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJANDROBARRETOJIME\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALEJANDROBARRETOJIME\git\CandidateServiceTracker\ApplicantTrackerServicesExcel\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EF789850-3E80-4CAF-954F-E7058B514A83}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8F9C86A1-2FFE-4E39-A586-A19CD9949BD5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}" yWindow="-110"/>
+    <workbookView activeTab="2" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{C3F15582-6801-4F66-8811-769D2BDBC102}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Candidates" r:id="rId1" sheetId="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -104,79 +104,118 @@
     <t>Evaluation Date</t>
   </si>
   <si>
+    <t>Evaluation Type</t>
+  </si>
+  <si>
+    <t>Evaluation Status</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Alex@email.com</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Back-End</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>2021/02/26 12:02:42</t>
+  </si>
+  <si>
+    <t>Skills BAck end</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Juan@email.com</t>
+  </si>
+  <si>
+    <t>Froint-End</t>
+  </si>
+  <si>
+    <t>2021/02/26 12:03:12</t>
+  </si>
+  <si>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Cesar@email.com</t>
+  </si>
+  <si>
+    <t>FullStack</t>
+  </si>
+  <si>
+    <t>2021/02/26 12:03:30</t>
+  </si>
+  <si>
     <t>Bis</t>
   </si>
   <si>
     <t>Bis@email.com</t>
   </si>
   <si>
-    <t>eTrade</t>
-  </si>
-  <si>
-    <t>Alex2</t>
-  </si>
-  <si>
-    <t>Alex2@email.com</t>
-  </si>
-  <si>
-    <t>Back-End</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
-  </si>
-  <si>
-    <t>2021/02/08 17:04:15</t>
-  </si>
-  <si>
-    <t>Skills Back end</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2021/02/08 17:11:54</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Alex@email.com</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>Back-end Developer</t>
-  </si>
-  <si>
-    <t>feedback</t>
-  </si>
-  <si>
-    <t>2021/02/08 17:57:11</t>
-  </si>
-  <si>
-    <t>accepted</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>Prueba@email.com</t>
-  </si>
-  <si>
-    <t>3317221090</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>2021/02/11 15:57:48</t>
-  </si>
-  <si>
-    <t>Skills BAck end</t>
+    <t>e-Trade</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>client@email.com</t>
+  </si>
+  <si>
+    <t>Excellent prospect</t>
+  </si>
+  <si>
+    <t>2021/02/26 12:11:03</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>I.E. accepted</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Excellent candidate for the job</t>
+  </si>
+  <si>
+    <t>2021/02/26 12:13:51</t>
+  </si>
+  <si>
+    <t>C.E. accepted</t>
+  </si>
+  <si>
+    <t>2021/02/26 12:14:45</t>
+  </si>
+  <si>
+    <t>2021/02/26 12:14:54</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>2021/02/26 13:05:39</t>
+  </si>
+  <si>
+    <t>IE 2</t>
+  </si>
+  <si>
+    <t>I.E. accepted 2</t>
   </si>
 </sst>
 </file>
@@ -568,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6179C743-21EB-418C-B8C4-C2B31C0477C5}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,30 +654,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.23456789E9</v>
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="n">
-        <v>5.0</v>
+      <c r="F2">
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
         <v>30</v>
@@ -646,8 +685,8 @@
       <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.0</v>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
@@ -656,39 +695,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.23456789E9</v>
-      </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.0</v>
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.0</v>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
@@ -697,39 +736,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.0</v>
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.0</v>
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -745,7 +784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2AEA43-741B-4AEE-8002-632E7D454993}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -753,7 +792,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -772,25 +811,141 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.0</v>
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -800,15 +955,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CBEA14-E8E3-4C62-ADB9-378814C22411}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -821,19 +976,50 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -865,18 +1051,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
